--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
     <t>Itgb6</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H2">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.111678</v>
+        <v>0.2577576666666667</v>
       </c>
       <c r="N2">
-        <v>0.335034</v>
+        <v>0.7732730000000001</v>
       </c>
       <c r="O2">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="P2">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="Q2">
-        <v>0.736754395818</v>
+        <v>0.7133577458986667</v>
       </c>
       <c r="R2">
-        <v>6.630789562362</v>
+        <v>6.420219713088</v>
       </c>
       <c r="S2">
-        <v>0.00181311461743757</v>
+        <v>0.001658951873991134</v>
       </c>
       <c r="T2">
-        <v>0.00181311461743757</v>
+        <v>0.001658951873991134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H3">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.728126</v>
       </c>
       <c r="O3">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="P3">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="Q3">
-        <v>14.79544286883533</v>
+        <v>6.206812855850666</v>
       </c>
       <c r="R3">
-        <v>133.158985819518</v>
+        <v>55.86131570265599</v>
       </c>
       <c r="S3">
-        <v>0.0364108227778726</v>
+        <v>0.01443427772099695</v>
       </c>
       <c r="T3">
-        <v>0.03641082277787259</v>
+        <v>0.01443427772099695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H4">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I4">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J4">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.075634</v>
+        <v>4.789377333333333</v>
       </c>
       <c r="N4">
-        <v>15.226902</v>
+        <v>14.368132</v>
       </c>
       <c r="O4">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891901</v>
       </c>
       <c r="P4">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891902</v>
       </c>
       <c r="Q4">
-        <v>33.484622406054</v>
+        <v>13.25485081762133</v>
       </c>
       <c r="R4">
-        <v>301.361601654486</v>
+        <v>119.293657358592</v>
       </c>
       <c r="S4">
-        <v>0.08240393092787408</v>
+        <v>0.03082486975124176</v>
       </c>
       <c r="T4">
-        <v>0.08240393092787408</v>
+        <v>0.03082486975124177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H5">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I5">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J5">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02011033333333333</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N5">
-        <v>0.060331</v>
+        <v>0.068443</v>
       </c>
       <c r="O5">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="P5">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="Q5">
-        <v>0.1326705034536667</v>
+        <v>0.06313985384533334</v>
       </c>
       <c r="R5">
-        <v>1.194034531083</v>
+        <v>0.568258684608</v>
       </c>
       <c r="S5">
-        <v>0.0003264952750605193</v>
+        <v>0.0001468351321093264</v>
       </c>
       <c r="T5">
-        <v>0.0003264952750605193</v>
+        <v>0.0001468351321093264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>63.15952</v>
       </c>
       <c r="I6">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J6">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.111678</v>
+        <v>0.2577576666666667</v>
       </c>
       <c r="N6">
-        <v>0.335034</v>
+        <v>0.7732730000000001</v>
       </c>
       <c r="O6">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="P6">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="Q6">
-        <v>2.35117629152</v>
+        <v>5.42661683432889</v>
       </c>
       <c r="R6">
-        <v>21.16058662368</v>
+        <v>48.83955150896001</v>
       </c>
       <c r="S6">
-        <v>0.005786123742898771</v>
+        <v>0.01261988983578032</v>
       </c>
       <c r="T6">
-        <v>0.005786123742898771</v>
+        <v>0.01261988983578032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>63.15952</v>
       </c>
       <c r="I7">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J7">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.728126</v>
       </c>
       <c r="O7">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="P7">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="Q7">
         <v>47.21613429550222</v>
@@ -883,10 +883,10 @@
         <v>424.94520865952</v>
       </c>
       <c r="S7">
-        <v>0.1161964743692119</v>
+        <v>0.1098036643219785</v>
       </c>
       <c r="T7">
-        <v>0.1161964743692119</v>
+        <v>0.1098036643219785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>63.15952</v>
       </c>
       <c r="I8">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J8">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.075634</v>
+        <v>4.789377333333333</v>
       </c>
       <c r="N8">
-        <v>15.226902</v>
+        <v>14.368132</v>
       </c>
       <c r="O8">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891901</v>
       </c>
       <c r="P8">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891902</v>
       </c>
       <c r="Q8">
-        <v>106.85820237856</v>
+        <v>100.8315911574044</v>
       </c>
       <c r="R8">
-        <v>961.7238214070401</v>
+        <v>907.48432041664</v>
       </c>
       <c r="S8">
-        <v>0.262972531722132</v>
+        <v>0.2344892980693105</v>
       </c>
       <c r="T8">
-        <v>0.262972531722132</v>
+        <v>0.2344892980693106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>63.15952</v>
       </c>
       <c r="I9">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J9">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02011033333333333</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N9">
-        <v>0.060331</v>
+        <v>0.068443</v>
       </c>
       <c r="O9">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="P9">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="Q9">
-        <v>0.4233863334577777</v>
+        <v>0.4803141141511112</v>
       </c>
       <c r="R9">
-        <v>3.81047700112</v>
+        <v>4.322827027360001</v>
       </c>
       <c r="S9">
-        <v>0.001041931957750036</v>
+        <v>0.001116996351909756</v>
       </c>
       <c r="T9">
-        <v>0.001041931957750036</v>
+        <v>0.001116996351909756</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H10">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I10">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J10">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.111678</v>
+        <v>0.2577576666666667</v>
       </c>
       <c r="N10">
-        <v>0.335034</v>
+        <v>0.7732730000000001</v>
       </c>
       <c r="O10">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="P10">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="Q10">
-        <v>3.003245967232</v>
+        <v>9.015696274997115</v>
       </c>
       <c r="R10">
-        <v>27.029213705088</v>
+        <v>81.14126647497402</v>
       </c>
       <c r="S10">
-        <v>0.007390833626317316</v>
+        <v>0.02096648745560261</v>
       </c>
       <c r="T10">
-        <v>0.007390833626317316</v>
+        <v>0.02096648745560261</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H11">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I11">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J11">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.728126</v>
       </c>
       <c r="O11">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="P11">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="Q11">
-        <v>60.31094538622578</v>
+        <v>78.44414652510979</v>
       </c>
       <c r="R11">
-        <v>542.798508476032</v>
+        <v>705.9973187259881</v>
       </c>
       <c r="S11">
-        <v>0.1484221299417367</v>
+        <v>0.1824260893354788</v>
       </c>
       <c r="T11">
-        <v>0.1484221299417367</v>
+        <v>0.1824260893354788</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H12">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I12">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J12">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.075634</v>
+        <v>4.789377333333333</v>
       </c>
       <c r="N12">
-        <v>15.226902</v>
+        <v>14.368132</v>
       </c>
       <c r="O12">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891901</v>
       </c>
       <c r="P12">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891902</v>
       </c>
       <c r="Q12">
-        <v>136.494003668096</v>
+        <v>167.5200274043796</v>
       </c>
       <c r="R12">
-        <v>1228.446033012864</v>
+        <v>1507.680246639416</v>
       </c>
       <c r="S12">
-        <v>0.3359047121373902</v>
+        <v>0.3895768497522121</v>
       </c>
       <c r="T12">
-        <v>0.3359047121373902</v>
+        <v>0.3895768497522122</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H13">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I13">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J13">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02011033333333333</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N13">
-        <v>0.060331</v>
+        <v>0.068443</v>
       </c>
       <c r="O13">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="P13">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="Q13">
-        <v>0.5408072985102221</v>
+        <v>0.7979863517148891</v>
       </c>
       <c r="R13">
-        <v>4.867265686592</v>
+        <v>7.181877165434002</v>
       </c>
       <c r="S13">
-        <v>0.001330898904318218</v>
+        <v>0.001855760256628395</v>
       </c>
       <c r="T13">
-        <v>0.001330898904318218</v>
+        <v>0.001855760256628395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.004706</v>
+      </c>
+      <c r="H14">
+        <v>0.014118</v>
+      </c>
+      <c r="I14">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J14">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2577576666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.7732730000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.03524815007985697</v>
+      </c>
+      <c r="P14">
+        <v>0.03524815007985697</v>
+      </c>
+      <c r="Q14">
+        <v>0.001213007579333334</v>
+      </c>
+      <c r="R14">
+        <v>0.010917068214</v>
+      </c>
+      <c r="S14">
+        <v>2.820914482908461E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.820914482908461E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.004706</v>
+      </c>
+      <c r="H15">
+        <v>0.014118</v>
+      </c>
+      <c r="I15">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J15">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.242708666666667</v>
+      </c>
+      <c r="N15">
+        <v>6.728126</v>
+      </c>
+      <c r="O15">
+        <v>0.3066885757089511</v>
+      </c>
+      <c r="P15">
+        <v>0.3066885757089511</v>
+      </c>
+      <c r="Q15">
+        <v>0.01055418698533333</v>
+      </c>
+      <c r="R15">
+        <v>0.094987682868</v>
+      </c>
+      <c r="S15">
+        <v>2.454433049677536E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.454433049677536E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.004706</v>
+      </c>
+      <c r="H16">
+        <v>0.014118</v>
+      </c>
+      <c r="I16">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.789377333333333</v>
+      </c>
+      <c r="N16">
+        <v>14.368132</v>
+      </c>
+      <c r="O16">
+        <v>0.6549434327891901</v>
+      </c>
+      <c r="P16">
+        <v>0.6549434327891902</v>
+      </c>
+      <c r="Q16">
+        <v>0.02253880973066667</v>
+      </c>
+      <c r="R16">
+        <v>0.202849287576</v>
+      </c>
+      <c r="S16">
+        <v>5.241521642568731E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.241521642568732E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.004706</v>
+      </c>
+      <c r="H17">
+        <v>0.014118</v>
+      </c>
+      <c r="I17">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J17">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.02281433333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.068443</v>
+      </c>
+      <c r="O17">
+        <v>0.003119841422001868</v>
+      </c>
+      <c r="P17">
+        <v>0.003119841422001868</v>
+      </c>
+      <c r="Q17">
+        <v>0.0001073642526666667</v>
+      </c>
+      <c r="R17">
+        <v>0.0009662782740000001</v>
+      </c>
+      <c r="S17">
+        <v>2.496813543906276E-07</v>
+      </c>
+      <c r="T17">
+        <v>2.496813543906277E-07</v>
       </c>
     </row>
   </sheetData>
